--- a/src/pom/ExcelData/ELC/Induction.xlsx
+++ b/src/pom/ExcelData/ELC/Induction.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="InductionSchedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -43,16 +43,16 @@
     <t>Mahape</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
   </si>
   <si>
     <t>Employee Name</t>
   </si>
   <si>
-    <t>Gaikwad Ravina</t>
+    <t>ritesh pandey</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +96,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,14 +138,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,7 +499,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -508,16 +520,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -525,22 +537,22 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
